--- a/doc/学習プログラム仕様/社員管理システム変更仕様.xlsx
+++ b/doc/学習プログラム仕様/社員管理システム変更仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要 (社員個人情報管理) (旧姓)" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'概要 (社員個人情報管理) (旧住所)'!$A$1:$BG$245</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'概要 (社員個人情報管理) (旧姓)'!$A$1:$BG$168</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'概要 (社員個人情報管理) (緊急連絡先)'!$A$1:$BG$214</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'更新仕様(旧住所)'!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'更新仕様(旧住所)'!$A$1:$I$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'処理仕様(入力) (旧住所)'!$A$1:$M$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'処理仕様(入力) (旧姓) (緊急連絡先)'!$A$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'表示仕様 (旧姓)'!$A$1:$H$27</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="354">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -1469,10 +1469,6 @@
     <t>"2"</t>
   </si>
   <si>
-    <t>1.住所マスタ(旧住所).住所ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>,`PSN`.`maiden_name` AS `maiden_name`</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1690,20 +1686,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「
-SELECT 
- `EMAD2`.`addr_id` AS `addr_id_old`
-  FROM `s_emp_addr` `EMAD2`
- WHERE `EMAD2`.`employee_id`=? AND `EMAD2`.`seq`=2
-」（パラメタ１：画面に表示されている社員のID）
-で取得したIDで削除する。</t>
-    <rPh sb="151" eb="153">
+    <t>更新前の旧住所IDを住所マスタから取得する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="158" eb="160">
-      <t>サクジョ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員住所マスタ(旧住所)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT 
+ `EMAD`.`addr_id` AS `addr_id`
+  FROM `s_emp_addr` `EMAD`
+ WHERE `EMAD`.`employee_id`=? AND `EMAD`.`seq`=?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addr_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.で取得した</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目</t>
+  </si>
+  <si>
+    <t>ID(隠し)</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2724,6 +2752,18 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2751,16 +2791,13 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7027,17 +7064,17 @@
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
       <c r="V73" s="23"/>
-      <c r="W73" s="121" t="s">
+      <c r="W73" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X73" s="122"/>
-      <c r="Y73" s="122"/>
-      <c r="Z73" s="122"/>
-      <c r="AA73" s="122"/>
-      <c r="AB73" s="122"/>
-      <c r="AC73" s="122"/>
-      <c r="AD73" s="122"/>
-      <c r="AE73" s="123"/>
+      <c r="X73" s="126"/>
+      <c r="Y73" s="126"/>
+      <c r="Z73" s="126"/>
+      <c r="AA73" s="126"/>
+      <c r="AB73" s="126"/>
+      <c r="AC73" s="126"/>
+      <c r="AD73" s="126"/>
+      <c r="AE73" s="127"/>
       <c r="AF73" s="23"/>
       <c r="AG73" s="23"/>
       <c r="AH73" s="23"/>
@@ -7080,15 +7117,15 @@
       <c r="T74" s="23"/>
       <c r="U74" s="23"/>
       <c r="V74" s="23"/>
-      <c r="W74" s="124"/>
-      <c r="X74" s="125"/>
-      <c r="Y74" s="125"/>
-      <c r="Z74" s="125"/>
-      <c r="AA74" s="125"/>
-      <c r="AB74" s="125"/>
-      <c r="AC74" s="125"/>
-      <c r="AD74" s="125"/>
-      <c r="AE74" s="126"/>
+      <c r="W74" s="128"/>
+      <c r="X74" s="129"/>
+      <c r="Y74" s="129"/>
+      <c r="Z74" s="129"/>
+      <c r="AA74" s="129"/>
+      <c r="AB74" s="129"/>
+      <c r="AC74" s="129"/>
+      <c r="AD74" s="129"/>
+      <c r="AE74" s="130"/>
       <c r="AF74" s="23"/>
       <c r="AG74" s="23"/>
       <c r="AH74" s="23"/>
@@ -7134,15 +7171,15 @@
       <c r="T75" s="23"/>
       <c r="U75" s="23"/>
       <c r="V75" s="23"/>
-      <c r="W75" s="127"/>
-      <c r="X75" s="128"/>
-      <c r="Y75" s="128"/>
-      <c r="Z75" s="128"/>
-      <c r="AA75" s="128"/>
-      <c r="AB75" s="128"/>
-      <c r="AC75" s="128"/>
-      <c r="AD75" s="128"/>
-      <c r="AE75" s="129"/>
+      <c r="W75" s="131"/>
+      <c r="X75" s="132"/>
+      <c r="Y75" s="132"/>
+      <c r="Z75" s="132"/>
+      <c r="AA75" s="132"/>
+      <c r="AB75" s="132"/>
+      <c r="AC75" s="132"/>
+      <c r="AD75" s="132"/>
+      <c r="AE75" s="133"/>
       <c r="AF75" s="23"/>
       <c r="AG75" s="23"/>
       <c r="AH75" s="23"/>
@@ -10978,17 +11015,17 @@
       <c r="T155" s="23"/>
       <c r="U155" s="23"/>
       <c r="V155" s="23"/>
-      <c r="W155" s="121" t="s">
+      <c r="W155" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X155" s="122"/>
-      <c r="Y155" s="122"/>
-      <c r="Z155" s="122"/>
-      <c r="AA155" s="122"/>
-      <c r="AB155" s="122"/>
-      <c r="AC155" s="122"/>
-      <c r="AD155" s="122"/>
-      <c r="AE155" s="123"/>
+      <c r="X155" s="126"/>
+      <c r="Y155" s="126"/>
+      <c r="Z155" s="126"/>
+      <c r="AA155" s="126"/>
+      <c r="AB155" s="126"/>
+      <c r="AC155" s="126"/>
+      <c r="AD155" s="126"/>
+      <c r="AE155" s="127"/>
       <c r="AF155" s="23"/>
       <c r="AG155" s="23"/>
       <c r="AH155" s="23"/>
@@ -11031,15 +11068,15 @@
       <c r="T156" s="23"/>
       <c r="U156" s="23"/>
       <c r="V156" s="23"/>
-      <c r="W156" s="124"/>
-      <c r="X156" s="125"/>
-      <c r="Y156" s="125"/>
-      <c r="Z156" s="125"/>
-      <c r="AA156" s="125"/>
-      <c r="AB156" s="125"/>
-      <c r="AC156" s="125"/>
-      <c r="AD156" s="125"/>
-      <c r="AE156" s="126"/>
+      <c r="W156" s="128"/>
+      <c r="X156" s="129"/>
+      <c r="Y156" s="129"/>
+      <c r="Z156" s="129"/>
+      <c r="AA156" s="129"/>
+      <c r="AB156" s="129"/>
+      <c r="AC156" s="129"/>
+      <c r="AD156" s="129"/>
+      <c r="AE156" s="130"/>
       <c r="AF156" s="23"/>
       <c r="AG156" s="23"/>
       <c r="AH156" s="23"/>
@@ -11085,15 +11122,15 @@
       <c r="T157" s="23"/>
       <c r="U157" s="23"/>
       <c r="V157" s="23"/>
-      <c r="W157" s="127"/>
-      <c r="X157" s="128"/>
-      <c r="Y157" s="128"/>
-      <c r="Z157" s="128"/>
-      <c r="AA157" s="128"/>
-      <c r="AB157" s="128"/>
-      <c r="AC157" s="128"/>
-      <c r="AD157" s="128"/>
-      <c r="AE157" s="129"/>
+      <c r="W157" s="131"/>
+      <c r="X157" s="132"/>
+      <c r="Y157" s="132"/>
+      <c r="Z157" s="132"/>
+      <c r="AA157" s="132"/>
+      <c r="AB157" s="132"/>
+      <c r="AC157" s="132"/>
+      <c r="AD157" s="132"/>
+      <c r="AE157" s="133"/>
       <c r="AF157" s="23"/>
       <c r="AG157" s="23"/>
       <c r="AH157" s="23"/>
@@ -11716,7 +11753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4DBE4D-2461-479E-89AE-26EDDCF6A084}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -11762,7 +11799,7 @@
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="E8" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" s="107"/>
       <c r="G8" s="107"/>
@@ -11770,7 +11807,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="E9" s="106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F9" s="107"/>
       <c r="G9" s="107"/>
@@ -11786,7 +11823,7 @@
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="E11" s="106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F11" s="107"/>
       <c r="G11" s="107"/>
@@ -11794,7 +11831,7 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="E12" s="106" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="107"/>
       <c r="G12" s="107"/>
@@ -11802,7 +11839,7 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="E13" s="106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F13" s="107"/>
       <c r="G13" s="107"/>
@@ -11810,7 +11847,7 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="E14" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
@@ -11826,7 +11863,7 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="E16" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
@@ -11842,7 +11879,7 @@
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1">
       <c r="E18" s="106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" s="107"/>
       <c r="G18" s="107"/>
@@ -11850,7 +11887,7 @@
     </row>
     <row r="19" spans="3:8" ht="18" customHeight="1">
       <c r="E19" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F19" s="107"/>
       <c r="G19" s="107"/>
@@ -11899,7 +11936,7 @@
         <v>148</v>
       </c>
       <c r="G25" s="88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H25" s="66"/>
     </row>
@@ -11912,7 +11949,7 @@
       </c>
       <c r="G26" s="119"/>
       <c r="H26" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="18" customHeight="1">
@@ -11923,7 +11960,7 @@
         <v>150</v>
       </c>
       <c r="G27" s="119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H27" s="66"/>
     </row>
@@ -11982,10 +12019,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G38" s="88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H38" s="66"/>
     </row>
@@ -11994,11 +12031,11 @@
         <v>2</v>
       </c>
       <c r="F39" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G39" s="119"/>
       <c r="H39" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="4:8" ht="18" customHeight="1">
@@ -12006,10 +12043,10 @@
         <v>3</v>
       </c>
       <c r="F40" s="71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G40" s="119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H40" s="66"/>
     </row>
@@ -12021,7 +12058,7 @@
         <v>285</v>
       </c>
       <c r="G41" s="119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H41" s="66"/>
     </row>
@@ -12033,7 +12070,7 @@
         <v>286</v>
       </c>
       <c r="G42" s="119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H42" s="66"/>
     </row>
@@ -12045,7 +12082,7 @@
         <v>287</v>
       </c>
       <c r="G43" s="119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H43" s="66"/>
     </row>
@@ -12057,7 +12094,7 @@
         <v>288</v>
       </c>
       <c r="G44" s="119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H44" s="66"/>
     </row>
@@ -12066,10 +12103,10 @@
         <v>8</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G45" s="119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H45" s="66"/>
     </row>
@@ -12110,7 +12147,7 @@
     </row>
     <row r="55" spans="3:8" ht="18" customHeight="1">
       <c r="E55" s="106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F55" s="107"/>
       <c r="G55" s="107"/>
@@ -12150,7 +12187,7 @@
     </row>
     <row r="60" spans="3:8" ht="18" customHeight="1">
       <c r="E60" s="106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F60" s="107"/>
       <c r="G60" s="107"/>
@@ -12158,7 +12195,7 @@
     </row>
     <row r="61" spans="3:8" ht="18" customHeight="1">
       <c r="E61" s="106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F61" s="107"/>
       <c r="G61" s="107"/>
@@ -12180,7 +12217,7 @@
     </row>
     <row r="64" spans="3:8" ht="18" customHeight="1">
       <c r="E64" s="63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="4:8" ht="18" customHeight="1">
@@ -12220,7 +12257,7 @@
         <v>148</v>
       </c>
       <c r="G69" s="88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H69" s="66"/>
     </row>
@@ -12233,7 +12270,7 @@
       </c>
       <c r="G70" s="119"/>
       <c r="H70" s="66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="4:8" ht="18" customHeight="1">
@@ -12244,7 +12281,7 @@
         <v>150</v>
       </c>
       <c r="G71" s="119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H71" s="66"/>
     </row>
@@ -12256,7 +12293,7 @@
         <v>285</v>
       </c>
       <c r="G72" s="119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H72" s="66"/>
     </row>
@@ -12268,7 +12305,7 @@
         <v>286</v>
       </c>
       <c r="G73" s="119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H73" s="66"/>
     </row>
@@ -12280,7 +12317,7 @@
         <v>287</v>
       </c>
       <c r="G74" s="119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H74" s="66"/>
     </row>
@@ -12292,7 +12329,7 @@
         <v>288</v>
       </c>
       <c r="G75" s="119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H75" s="66"/>
     </row>
@@ -12301,10 +12338,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G76" s="119" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H76" s="66"/>
     </row>
@@ -12323,10 +12360,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1F3DAD-1CB4-4EDE-A3C5-D7FD04B20B64}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:H34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -12357,17 +12394,18 @@
         <v>215</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="C6" s="63"/>
       <c r="D6" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="D7" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
@@ -12379,250 +12417,399 @@
       <c r="H8" s="73"/>
       <c r="I8" s="78"/>
     </row>
-    <row r="9" spans="1:9" ht="115.5" customHeight="1">
-      <c r="E9" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="133" t="s">
+    <row r="9" spans="1:9" ht="77.25" customHeight="1">
+      <c r="E9" s="136" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="E10" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="E11" s="89" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="C14" s="61" t="s">
+      <c r="F11" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="E12" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1">
+      <c r="C16" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="D15" s="61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="E16" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="18" customHeight="1">
-      <c r="E17" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="4:9" ht="18" customHeight="1">
-      <c r="E18" s="89" t="s">
+      <c r="D16" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="61"/>
+    </row>
+    <row r="17" spans="3:9" ht="18" customHeight="1">
+      <c r="C17" s="63"/>
+      <c r="D17" s="61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="18" customHeight="1">
+      <c r="D18" s="61" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="18" customHeight="1">
+      <c r="E19" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="3:9" ht="18" customHeight="1">
+      <c r="E20" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="3:9" ht="18" customHeight="1">
+      <c r="E21" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F21" s="89" t="s">
         <v>289</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-    </row>
-    <row r="19" spans="4:9" ht="18" customHeight="1">
-      <c r="E19" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-    </row>
-    <row r="20" spans="4:9" ht="18" customHeight="1">
-      <c r="E20" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-    </row>
-    <row r="21" spans="4:9" ht="18" customHeight="1">
-      <c r="E21" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="89" t="s">
-        <v>268</v>
       </c>
       <c r="G21" s="90"/>
       <c r="H21" s="90"/>
       <c r="I21" s="91"/>
     </row>
-    <row r="22" spans="4:9" ht="18" customHeight="1">
-      <c r="E22" s="89" t="s">
+    <row r="22" spans="3:9" ht="18" customHeight="1">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="25" spans="3:9" ht="18" customHeight="1">
+      <c r="C25" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="18" customHeight="1">
+      <c r="C26" s="63"/>
+      <c r="D26" s="61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="18" customHeight="1">
+      <c r="D27" s="61" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="18" customHeight="1">
+      <c r="E28" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="78"/>
+    </row>
+    <row r="29" spans="3:9" ht="22.5">
+      <c r="E29" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="124"/>
+    </row>
+    <row r="30" spans="3:9" ht="18" customHeight="1">
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="72"/>
+    </row>
+    <row r="33" spans="3:9" ht="18" customHeight="1">
+      <c r="C33" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="18" customHeight="1">
+      <c r="D34" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="18" customHeight="1">
+      <c r="E35" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="18" customHeight="1">
+      <c r="E36" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="91"/>
+    </row>
+    <row r="37" spans="3:9" ht="18" customHeight="1">
+      <c r="E37" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+    </row>
+    <row r="38" spans="3:9" ht="18" customHeight="1">
+      <c r="E38" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" s="90">
+        <v>8</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="3:9" ht="18" customHeight="1">
+      <c r="E39" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+    </row>
+    <row r="40" spans="3:9" ht="18" customHeight="1">
+      <c r="E40" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+    </row>
+    <row r="41" spans="3:9" ht="18" customHeight="1">
+      <c r="E41" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="91"/>
+    </row>
+    <row r="42" spans="3:9" ht="18" customHeight="1">
+      <c r="E42" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F42" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
+    </row>
+    <row r="43" spans="3:9" ht="18" customHeight="1">
+      <c r="E43" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="4:9" ht="18" customHeight="1">
-      <c r="E23" s="89" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="89" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+    </row>
+    <row r="44" spans="3:9" ht="18" customHeight="1">
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="94"/>
+    </row>
+    <row r="46" spans="3:9" ht="18" customHeight="1">
+      <c r="D46" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="18" customHeight="1">
+      <c r="E47" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="18" customHeight="1">
+      <c r="E48" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" s="90">
+        <v>8</v>
+      </c>
+      <c r="H48" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="I48" s="91"/>
+    </row>
+    <row r="49" spans="5:9" ht="18" customHeight="1">
+      <c r="E49" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="4:9" ht="18" customHeight="1">
-      <c r="E24" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="89" t="s">
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="91"/>
+    </row>
+    <row r="50" spans="5:9" ht="18" customHeight="1">
+      <c r="E50" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F50" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="4:9" ht="18" customHeight="1">
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="27" spans="4:9" ht="18" customHeight="1">
-      <c r="D27" s="61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" ht="18" customHeight="1">
-      <c r="E28" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" ht="18" customHeight="1">
-      <c r="E29" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="89" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-    </row>
-    <row r="30" spans="4:9" ht="18" customHeight="1">
-      <c r="E30" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-    </row>
-    <row r="31" spans="4:9" ht="18" customHeight="1">
-      <c r="E31" s="89" t="s">
-        <v>325</v>
-      </c>
-      <c r="F31" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-    </row>
-    <row r="32" spans="4:9" ht="18" customHeight="1">
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-    </row>
-    <row r="33" spans="5:9" ht="18" customHeight="1">
-      <c r="E33" s="116" t="s">
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="91"/>
+    </row>
+    <row r="51" spans="5:9" ht="18" customHeight="1">
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="77"/>
+    </row>
+    <row r="52" spans="5:9" ht="18" customHeight="1">
+      <c r="E52" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="78"/>
-    </row>
-    <row r="34" spans="5:9" ht="18" customHeight="1">
-      <c r="E34" s="71" t="s">
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="78"/>
+    </row>
+    <row r="53" spans="5:9" ht="18" customHeight="1">
+      <c r="E53" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="F53" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90" t="s">
+      <c r="G53" s="90"/>
+      <c r="H53" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="5:9" ht="18" customHeight="1">
-      <c r="E35" s="89" t="s">
+      <c r="I53" s="66"/>
+    </row>
+    <row r="54" spans="5:9" ht="18" customHeight="1">
+      <c r="E54" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="89" t="s">
+      <c r="F54" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91"/>
-    </row>
-    <row r="36" spans="5:9" ht="18" customHeight="1">
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="72"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="91"/>
+    </row>
+    <row r="55" spans="5:9" ht="18" customHeight="1">
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="72"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:I9"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -12701,7 +12888,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -12754,7 +12941,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="E9" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="107"/>
       <c r="G9" s="107"/>
@@ -12762,7 +12949,7 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="E10" s="106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="107"/>
       <c r="G10" s="107"/>
@@ -12778,7 +12965,7 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="E12" s="106" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F12" s="107"/>
       <c r="G12" s="107"/>
@@ -12829,7 +13016,7 @@
         <v>229</v>
       </c>
       <c r="G18" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H18" s="66"/>
     </row>
@@ -12841,7 +13028,7 @@
         <v>230</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H19" s="66"/>
     </row>
@@ -13071,7 +13258,7 @@
     </row>
     <row r="19" spans="4:9" ht="18" customHeight="1">
       <c r="E19" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F19" s="79" t="s">
         <v>172</v>
@@ -13225,7 +13412,7 @@
     </row>
     <row r="36" spans="5:9" ht="18" customHeight="1">
       <c r="E36" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F36" s="79" t="s">
         <v>172</v>
@@ -17771,17 +17958,17 @@
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
       <c r="V91" s="23"/>
-      <c r="W91" s="121" t="s">
+      <c r="W91" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X91" s="122"/>
-      <c r="Y91" s="122"/>
-      <c r="Z91" s="122"/>
-      <c r="AA91" s="122"/>
-      <c r="AB91" s="122"/>
-      <c r="AC91" s="122"/>
-      <c r="AD91" s="122"/>
-      <c r="AE91" s="123"/>
+      <c r="X91" s="126"/>
+      <c r="Y91" s="126"/>
+      <c r="Z91" s="126"/>
+      <c r="AA91" s="126"/>
+      <c r="AB91" s="126"/>
+      <c r="AC91" s="126"/>
+      <c r="AD91" s="126"/>
+      <c r="AE91" s="127"/>
       <c r="AF91" s="23"/>
       <c r="AG91" s="23"/>
       <c r="AH91" s="23"/>
@@ -17824,15 +18011,15 @@
       <c r="T92" s="23"/>
       <c r="U92" s="23"/>
       <c r="V92" s="23"/>
-      <c r="W92" s="124"/>
-      <c r="X92" s="125"/>
-      <c r="Y92" s="125"/>
-      <c r="Z92" s="125"/>
-      <c r="AA92" s="125"/>
-      <c r="AB92" s="125"/>
-      <c r="AC92" s="125"/>
-      <c r="AD92" s="125"/>
-      <c r="AE92" s="126"/>
+      <c r="W92" s="128"/>
+      <c r="X92" s="129"/>
+      <c r="Y92" s="129"/>
+      <c r="Z92" s="129"/>
+      <c r="AA92" s="129"/>
+      <c r="AB92" s="129"/>
+      <c r="AC92" s="129"/>
+      <c r="AD92" s="129"/>
+      <c r="AE92" s="130"/>
       <c r="AF92" s="23"/>
       <c r="AG92" s="23"/>
       <c r="AH92" s="23"/>
@@ -17878,15 +18065,15 @@
       <c r="T93" s="23"/>
       <c r="U93" s="23"/>
       <c r="V93" s="23"/>
-      <c r="W93" s="127"/>
-      <c r="X93" s="128"/>
-      <c r="Y93" s="128"/>
-      <c r="Z93" s="128"/>
-      <c r="AA93" s="128"/>
-      <c r="AB93" s="128"/>
-      <c r="AC93" s="128"/>
-      <c r="AD93" s="128"/>
-      <c r="AE93" s="129"/>
+      <c r="W93" s="131"/>
+      <c r="X93" s="132"/>
+      <c r="Y93" s="132"/>
+      <c r="Z93" s="132"/>
+      <c r="AA93" s="132"/>
+      <c r="AB93" s="132"/>
+      <c r="AC93" s="132"/>
+      <c r="AD93" s="132"/>
+      <c r="AE93" s="133"/>
       <c r="AF93" s="23"/>
       <c r="AG93" s="23"/>
       <c r="AH93" s="23"/>
@@ -22904,17 +23091,17 @@
       <c r="T193" s="23"/>
       <c r="U193" s="23"/>
       <c r="V193" s="23"/>
-      <c r="W193" s="121" t="s">
+      <c r="W193" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X193" s="122"/>
-      <c r="Y193" s="122"/>
-      <c r="Z193" s="122"/>
-      <c r="AA193" s="122"/>
-      <c r="AB193" s="122"/>
-      <c r="AC193" s="122"/>
-      <c r="AD193" s="122"/>
-      <c r="AE193" s="123"/>
+      <c r="X193" s="126"/>
+      <c r="Y193" s="126"/>
+      <c r="Z193" s="126"/>
+      <c r="AA193" s="126"/>
+      <c r="AB193" s="126"/>
+      <c r="AC193" s="126"/>
+      <c r="AD193" s="126"/>
+      <c r="AE193" s="127"/>
       <c r="AF193" s="23"/>
       <c r="AG193" s="23"/>
       <c r="AH193" s="23"/>
@@ -22957,15 +23144,15 @@
       <c r="T194" s="23"/>
       <c r="U194" s="23"/>
       <c r="V194" s="23"/>
-      <c r="W194" s="124"/>
-      <c r="X194" s="125"/>
-      <c r="Y194" s="125"/>
-      <c r="Z194" s="125"/>
-      <c r="AA194" s="125"/>
-      <c r="AB194" s="125"/>
-      <c r="AC194" s="125"/>
-      <c r="AD194" s="125"/>
-      <c r="AE194" s="126"/>
+      <c r="W194" s="128"/>
+      <c r="X194" s="129"/>
+      <c r="Y194" s="129"/>
+      <c r="Z194" s="129"/>
+      <c r="AA194" s="129"/>
+      <c r="AB194" s="129"/>
+      <c r="AC194" s="129"/>
+      <c r="AD194" s="129"/>
+      <c r="AE194" s="130"/>
       <c r="AF194" s="23"/>
       <c r="AG194" s="23"/>
       <c r="AH194" s="23"/>
@@ -23011,15 +23198,15 @@
       <c r="T195" s="23"/>
       <c r="U195" s="23"/>
       <c r="V195" s="23"/>
-      <c r="W195" s="127"/>
-      <c r="X195" s="128"/>
-      <c r="Y195" s="128"/>
-      <c r="Z195" s="128"/>
-      <c r="AA195" s="128"/>
-      <c r="AB195" s="128"/>
-      <c r="AC195" s="128"/>
-      <c r="AD195" s="128"/>
-      <c r="AE195" s="129"/>
+      <c r="W195" s="131"/>
+      <c r="X195" s="132"/>
+      <c r="Y195" s="132"/>
+      <c r="Z195" s="132"/>
+      <c r="AA195" s="132"/>
+      <c r="AB195" s="132"/>
+      <c r="AC195" s="132"/>
+      <c r="AD195" s="132"/>
+      <c r="AE195" s="133"/>
       <c r="AF195" s="23"/>
       <c r="AG195" s="23"/>
       <c r="AH195" s="23"/>
@@ -24192,7 +24379,7 @@
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="E8" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" s="107"/>
       <c r="G8" s="107"/>
@@ -24304,7 +24491,7 @@
     </row>
     <row r="22" spans="5:8" ht="18" customHeight="1">
       <c r="E22" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F22" s="107"/>
       <c r="G22" s="107"/>
@@ -24320,7 +24507,7 @@
     </row>
     <row r="24" spans="5:8" ht="18" customHeight="1">
       <c r="E24" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F24" s="107"/>
       <c r="G24" s="107"/>
@@ -24336,7 +24523,7 @@
     </row>
     <row r="26" spans="5:8" ht="18" customHeight="1">
       <c r="E26" s="106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="107"/>
@@ -24344,7 +24531,7 @@
     </row>
     <row r="27" spans="5:8" ht="18" customHeight="1">
       <c r="E27" s="106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
@@ -24352,7 +24539,7 @@
     </row>
     <row r="28" spans="5:8" ht="18" customHeight="1">
       <c r="E28" s="106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
@@ -24360,7 +24547,7 @@
     </row>
     <row r="29" spans="5:8" ht="18" customHeight="1">
       <c r="E29" s="106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
@@ -24368,7 +24555,7 @@
     </row>
     <row r="30" spans="5:8" ht="18" customHeight="1">
       <c r="E30" s="106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
@@ -24418,7 +24605,7 @@
       </c>
       <c r="G36" s="88"/>
       <c r="H36" s="66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="18" customHeight="1">
@@ -24430,7 +24617,7 @@
       </c>
       <c r="G37" s="119"/>
       <c r="H37" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="18" customHeight="1">
@@ -24441,7 +24628,7 @@
         <v>247</v>
       </c>
       <c r="G38" s="119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H38" s="66"/>
     </row>
@@ -24454,7 +24641,7 @@
       </c>
       <c r="G39" s="119"/>
       <c r="H39" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="18" customHeight="1">
@@ -24465,7 +24652,7 @@
         <v>249</v>
       </c>
       <c r="G40" s="119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H40" s="66"/>
     </row>
@@ -24477,7 +24664,7 @@
         <v>250</v>
       </c>
       <c r="G41" s="119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H41" s="66"/>
     </row>
@@ -24489,7 +24676,7 @@
         <v>251</v>
       </c>
       <c r="G42" s="119" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H42" s="66" t="s">
         <v>100</v>
@@ -24559,7 +24746,7 @@
         <v>254</v>
       </c>
       <c r="G52" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H52" s="66"/>
     </row>
@@ -24571,7 +24758,7 @@
         <v>255</v>
       </c>
       <c r="G53" s="119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H53" s="66"/>
     </row>
@@ -24583,7 +24770,7 @@
         <v>256</v>
       </c>
       <c r="G54" s="119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H54" s="66"/>
     </row>
@@ -24595,7 +24782,7 @@
         <v>257</v>
       </c>
       <c r="G55" s="119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H55" s="66"/>
     </row>
@@ -24607,7 +24794,7 @@
         <v>247</v>
       </c>
       <c r="G56" s="119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H56" s="66"/>
     </row>
@@ -24619,7 +24806,7 @@
         <v>258</v>
       </c>
       <c r="G57" s="119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H57" s="66"/>
     </row>
@@ -24631,7 +24818,7 @@
         <v>259</v>
       </c>
       <c r="G58" s="119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H58" s="66"/>
     </row>
@@ -24643,7 +24830,7 @@
         <v>249</v>
       </c>
       <c r="G59" s="119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H59" s="66"/>
     </row>
@@ -24667,7 +24854,7 @@
         <v>251</v>
       </c>
       <c r="G61" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H61" s="66"/>
     </row>
@@ -24697,7 +24884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D08A03B-8EBD-4B0D-933C-40369120ED26}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -24889,7 +25076,7 @@
     </row>
     <row r="19" spans="4:9" ht="18" customHeight="1">
       <c r="E19" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F19" s="89" t="s">
         <v>268</v>
@@ -25015,7 +25202,7 @@
     </row>
     <row r="30" spans="4:9" ht="18" customHeight="1">
       <c r="E30" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F30" s="89" t="s">
         <v>268</v>
@@ -25159,7 +25346,7 @@
     </row>
     <row r="46" spans="3:9" ht="18" customHeight="1">
       <c r="E46" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F46" s="89" t="s">
         <v>268</v>
@@ -25255,7 +25442,7 @@
     </row>
     <row r="55" spans="3:9" ht="18" customHeight="1">
       <c r="E55" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F55" s="89" t="s">
         <v>268</v>
@@ -25354,7 +25541,7 @@
     </row>
     <row r="68" spans="4:9" ht="18" customHeight="1">
       <c r="E68" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F68" s="89" t="s">
         <v>268</v>
@@ -25405,7 +25592,7 @@
     </row>
     <row r="74" spans="4:9" ht="18" customHeight="1">
       <c r="E74" s="71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F74" s="89" t="s">
         <v>268</v>
@@ -25559,7 +25746,7 @@
     </row>
     <row r="92" spans="3:9" ht="18" customHeight="1">
       <c r="E92" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F92" s="89" t="s">
         <v>268</v>
@@ -25570,7 +25757,7 @@
     </row>
     <row r="93" spans="3:9" ht="18" customHeight="1">
       <c r="E93" s="89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F93" s="89" t="s">
         <v>110</v>
@@ -25581,7 +25768,7 @@
     </row>
     <row r="94" spans="3:9" ht="18" customHeight="1">
       <c r="E94" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F94" s="89" t="s">
         <v>268</v>
@@ -25592,7 +25779,7 @@
     </row>
     <row r="95" spans="3:9" ht="18" customHeight="1">
       <c r="E95" s="89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F95" s="89" t="s">
         <v>110</v>
@@ -25643,7 +25830,7 @@
     </row>
     <row r="101" spans="4:9" ht="18" customHeight="1">
       <c r="E101" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F101" s="89" t="s">
         <v>268</v>
@@ -25654,7 +25841,7 @@
     </row>
     <row r="102" spans="4:9" ht="18" customHeight="1">
       <c r="E102" s="89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F102" s="89" t="s">
         <v>110</v>
@@ -25726,8 +25913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32F8AB-FF52-40E8-9DC0-EF1FC81313B2}">
   <dimension ref="A1:BE243"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A190" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U224" sqref="U224"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="BD234" sqref="BD234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="21" customHeight="1"/>
@@ -30863,17 +31050,17 @@
       <c r="T103" s="23"/>
       <c r="U103" s="23"/>
       <c r="V103" s="23"/>
-      <c r="W103" s="121" t="s">
+      <c r="W103" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X103" s="122"/>
-      <c r="Y103" s="122"/>
-      <c r="Z103" s="122"/>
-      <c r="AA103" s="122"/>
-      <c r="AB103" s="122"/>
-      <c r="AC103" s="122"/>
-      <c r="AD103" s="122"/>
-      <c r="AE103" s="123"/>
+      <c r="X103" s="126"/>
+      <c r="Y103" s="126"/>
+      <c r="Z103" s="126"/>
+      <c r="AA103" s="126"/>
+      <c r="AB103" s="126"/>
+      <c r="AC103" s="126"/>
+      <c r="AD103" s="126"/>
+      <c r="AE103" s="127"/>
       <c r="AF103" s="23"/>
       <c r="AG103" s="23"/>
       <c r="AH103" s="23"/>
@@ -30916,15 +31103,15 @@
       <c r="T104" s="23"/>
       <c r="U104" s="23"/>
       <c r="V104" s="23"/>
-      <c r="W104" s="124"/>
-      <c r="X104" s="125"/>
-      <c r="Y104" s="125"/>
-      <c r="Z104" s="125"/>
-      <c r="AA104" s="125"/>
-      <c r="AB104" s="125"/>
-      <c r="AC104" s="125"/>
-      <c r="AD104" s="125"/>
-      <c r="AE104" s="126"/>
+      <c r="W104" s="128"/>
+      <c r="X104" s="129"/>
+      <c r="Y104" s="129"/>
+      <c r="Z104" s="129"/>
+      <c r="AA104" s="129"/>
+      <c r="AB104" s="129"/>
+      <c r="AC104" s="129"/>
+      <c r="AD104" s="129"/>
+      <c r="AE104" s="130"/>
       <c r="AF104" s="23"/>
       <c r="AG104" s="23"/>
       <c r="AH104" s="23"/>
@@ -30970,15 +31157,15 @@
       <c r="T105" s="23"/>
       <c r="U105" s="23"/>
       <c r="V105" s="23"/>
-      <c r="W105" s="127"/>
-      <c r="X105" s="128"/>
-      <c r="Y105" s="128"/>
-      <c r="Z105" s="128"/>
-      <c r="AA105" s="128"/>
-      <c r="AB105" s="128"/>
-      <c r="AC105" s="128"/>
-      <c r="AD105" s="128"/>
-      <c r="AE105" s="129"/>
+      <c r="W105" s="131"/>
+      <c r="X105" s="132"/>
+      <c r="Y105" s="132"/>
+      <c r="Z105" s="132"/>
+      <c r="AA105" s="132"/>
+      <c r="AB105" s="132"/>
+      <c r="AC105" s="132"/>
+      <c r="AD105" s="132"/>
+      <c r="AE105" s="133"/>
       <c r="AF105" s="23"/>
       <c r="AG105" s="23"/>
       <c r="AH105" s="23"/>
@@ -36495,17 +36682,17 @@
       <c r="T215" s="23"/>
       <c r="U215" s="23"/>
       <c r="V215" s="23"/>
-      <c r="W215" s="121" t="s">
+      <c r="W215" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="X215" s="122"/>
-      <c r="Y215" s="122"/>
-      <c r="Z215" s="122"/>
-      <c r="AA215" s="122"/>
-      <c r="AB215" s="122"/>
-      <c r="AC215" s="122"/>
-      <c r="AD215" s="122"/>
-      <c r="AE215" s="123"/>
+      <c r="X215" s="126"/>
+      <c r="Y215" s="126"/>
+      <c r="Z215" s="126"/>
+      <c r="AA215" s="126"/>
+      <c r="AB215" s="126"/>
+      <c r="AC215" s="126"/>
+      <c r="AD215" s="126"/>
+      <c r="AE215" s="127"/>
       <c r="AF215" s="23"/>
       <c r="AG215" s="23"/>
       <c r="AH215" s="23"/>
@@ -36548,15 +36735,15 @@
       <c r="T216" s="23"/>
       <c r="U216" s="23"/>
       <c r="V216" s="23"/>
-      <c r="W216" s="124"/>
-      <c r="X216" s="125"/>
-      <c r="Y216" s="125"/>
-      <c r="Z216" s="125"/>
-      <c r="AA216" s="125"/>
-      <c r="AB216" s="125"/>
-      <c r="AC216" s="125"/>
-      <c r="AD216" s="125"/>
-      <c r="AE216" s="126"/>
+      <c r="W216" s="128"/>
+      <c r="X216" s="129"/>
+      <c r="Y216" s="129"/>
+      <c r="Z216" s="129"/>
+      <c r="AA216" s="129"/>
+      <c r="AB216" s="129"/>
+      <c r="AC216" s="129"/>
+      <c r="AD216" s="129"/>
+      <c r="AE216" s="130"/>
       <c r="AF216" s="23"/>
       <c r="AG216" s="23"/>
       <c r="AH216" s="23"/>
@@ -36602,15 +36789,15 @@
       <c r="T217" s="23"/>
       <c r="U217" s="23"/>
       <c r="V217" s="23"/>
-      <c r="W217" s="127"/>
-      <c r="X217" s="128"/>
-      <c r="Y217" s="128"/>
-      <c r="Z217" s="128"/>
-      <c r="AA217" s="128"/>
-      <c r="AB217" s="128"/>
-      <c r="AC217" s="128"/>
-      <c r="AD217" s="128"/>
-      <c r="AE217" s="129"/>
+      <c r="W217" s="131"/>
+      <c r="X217" s="132"/>
+      <c r="Y217" s="132"/>
+      <c r="Z217" s="132"/>
+      <c r="AA217" s="132"/>
+      <c r="AB217" s="132"/>
+      <c r="AC217" s="132"/>
+      <c r="AD217" s="132"/>
+      <c r="AE217" s="133"/>
       <c r="AF217" s="23"/>
       <c r="AG217" s="23"/>
       <c r="AH217" s="23"/>
@@ -37343,7 +37530,7 @@
       <c r="H232" s="36"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K232" s="36"/>
       <c r="L232" s="36"/>

--- a/doc/学習プログラム仕様/社員管理システム変更仕様.xlsx
+++ b/doc/学習プログラム仕様/社員管理システム変更仕様.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'概要 (社員個人情報管理) (旧住所)'!$A$1:$BG$245</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'概要 (社員個人情報管理) (旧姓)'!$A$1:$BG$168</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'概要 (社員個人情報管理) (緊急連絡先)'!$A$1:$BG$214</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'更新仕様(旧住所)'!$A$1:$I$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'更新仕様(旧住所)'!$A$1:$I$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'処理仕様(入力) (旧住所)'!$A$1:$M$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'処理仕様(入力) (旧姓) (緊急連絡先)'!$A$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'表示仕様 (旧姓)'!$A$1:$H$27</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="356">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -1733,6 +1733,23 @@
   <si>
     <t>ID(隠し)</t>
   </si>
+  <si>
+    <t>旧住所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※旧住所のIDがある場合のみ更新を行う。</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2791,14 +2808,14 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11753,7 +11770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4DBE4D-2461-479E-89AE-26EDDCF6A084}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
@@ -12360,10 +12377,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1F3DAD-1CB4-4EDE-A3C5-D7FD04B20B64}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -12418,13 +12435,13 @@
       <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" ht="77.25" customHeight="1">
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="134" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="E10" s="116" t="s">
@@ -12584,78 +12601,72 @@
     </row>
     <row r="34" spans="3:9" ht="18" customHeight="1">
       <c r="D34" s="61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="18" customHeight="1">
+      <c r="D35" s="61" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="18" customHeight="1">
-      <c r="E35" s="116" t="s">
+    <row r="36" spans="3:9" ht="18" customHeight="1">
+      <c r="E36" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="116" t="s">
+      <c r="F36" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="118" t="s">
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="118" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" ht="18" customHeight="1">
-      <c r="E36" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="3:9" ht="18" customHeight="1">
       <c r="E37" s="89" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="F37" s="89" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
+      <c r="H37" s="90" t="s">
+        <v>157</v>
+      </c>
       <c r="I37" s="91"/>
     </row>
     <row r="38" spans="3:9" ht="18" customHeight="1">
       <c r="E38" s="89" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="F38" s="89" t="s">
-        <v>352</v>
-      </c>
-      <c r="G38" s="90">
-        <v>8</v>
-      </c>
-      <c r="H38" s="90" t="s">
-        <v>353</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
       <c r="I38" s="91"/>
     </row>
     <row r="39" spans="3:9" ht="18" customHeight="1">
       <c r="E39" s="89" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F39" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
+        <v>352</v>
+      </c>
+      <c r="G39" s="90">
+        <v>8</v>
+      </c>
+      <c r="H39" s="90" t="s">
+        <v>353</v>
+      </c>
       <c r="I39" s="91"/>
     </row>
     <row r="40" spans="3:9" ht="18" customHeight="1">
       <c r="E40" s="89" t="s">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="G40" s="90"/>
       <c r="H40" s="90"/>
@@ -12663,10 +12674,10 @@
     </row>
     <row r="41" spans="3:9" ht="18" customHeight="1">
       <c r="E41" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" s="89" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="G41" s="90"/>
       <c r="H41" s="90"/>
@@ -12674,10 +12685,10 @@
     </row>
     <row r="42" spans="3:9" ht="18" customHeight="1">
       <c r="E42" s="89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F42" s="89" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="G42" s="90"/>
       <c r="H42" s="90"/>
@@ -12685,123 +12696,134 @@
     </row>
     <row r="43" spans="3:9" ht="18" customHeight="1">
       <c r="E43" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="G43" s="90"/>
       <c r="H43" s="90"/>
       <c r="I43" s="91"/>
     </row>
     <row r="44" spans="3:9" ht="18" customHeight="1">
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="94"/>
-    </row>
-    <row r="46" spans="3:9" ht="18" customHeight="1">
-      <c r="D46" s="61" t="s">
+      <c r="E44" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="91"/>
+    </row>
+    <row r="45" spans="3:9" ht="18" customHeight="1">
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="94"/>
+    </row>
+    <row r="47" spans="3:9" ht="18" customHeight="1">
+      <c r="D47" s="61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="18" customHeight="1">
-      <c r="E47" s="116" t="s">
+    <row r="48" spans="3:9" ht="18" customHeight="1">
+      <c r="E48" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="116" t="s">
+      <c r="F48" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118" t="s">
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="118" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" ht="18" customHeight="1">
-      <c r="E48" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>352</v>
-      </c>
-      <c r="G48" s="90">
-        <v>8</v>
-      </c>
-      <c r="H48" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="I48" s="91"/>
     </row>
     <row r="49" spans="5:9" ht="18" customHeight="1">
       <c r="E49" s="89" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="F49" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
+        <v>352</v>
+      </c>
+      <c r="G49" s="90">
+        <v>8</v>
+      </c>
+      <c r="H49" s="90" t="s">
+        <v>353</v>
+      </c>
       <c r="I49" s="91"/>
     </row>
     <row r="50" spans="5:9" ht="18" customHeight="1">
       <c r="E50" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F50" s="89" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="G50" s="90"/>
       <c r="H50" s="90"/>
       <c r="I50" s="91"/>
     </row>
     <row r="51" spans="5:9" ht="18" customHeight="1">
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="77"/>
+      <c r="E51" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="F51" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="91"/>
     </row>
     <row r="52" spans="5:9" ht="18" customHeight="1">
-      <c r="E52" s="116" t="s">
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="77"/>
+    </row>
+    <row r="53" spans="5:9" ht="18" customHeight="1">
+      <c r="E53" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="78"/>
-    </row>
-    <row r="53" spans="5:9" ht="18" customHeight="1">
-      <c r="E53" s="71" t="s">
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="78"/>
+    </row>
+    <row r="54" spans="5:9" ht="18" customHeight="1">
+      <c r="E54" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="89" t="s">
+      <c r="F54" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="I53" s="66"/>
-    </row>
-    <row r="54" spans="5:9" ht="18" customHeight="1">
-      <c r="E54" s="89" t="s">
+      <c r="I54" s="66"/>
+    </row>
+    <row r="55" spans="5:9" ht="18" customHeight="1">
+      <c r="E55" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F55" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="91"/>
-    </row>
-    <row r="55" spans="5:9" ht="18" customHeight="1">
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="72"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+    </row>
+    <row r="56" spans="5:9" ht="18" customHeight="1">
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25913,8 +25935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32F8AB-FF52-40E8-9DC0-EF1FC81313B2}">
   <dimension ref="A1:BE243"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="BD234" sqref="BD234"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="21" customHeight="1"/>
@@ -37525,7 +37547,7 @@
       </c>
       <c r="F232" s="35"/>
       <c r="G232" s="36" t="s">
-        <v>90</v>
+        <v>354</v>
       </c>
       <c r="H232" s="36"/>
       <c r="I232" s="36"/>
